--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1e5a0122e61a6c0/Documentos/UiPath/Github/Generate Yearly Report/Generate_Yearly_Report/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1B82966-208C-4F66-8D4F-FBD8EDDF955B}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5454389C-7D7F-4BCC-9199-D0342E9C01D0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="28770" windowHeight="14355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -547,15 +547,15 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -592,7 +592,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1634,12 +1634,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1676,7 +1676,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1801,7 +1801,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2797,12 +2797,12 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
